--- a/expimp/work.xlsx
+++ b/expimp/work.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>fed70605-e69e-4462-a1d5-8a10b47c2991</t>
+          <t>6a60fb0b-6216-4615-a56f-fed640ec0974</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>d0411f35-a1f8-413c-9a21-4dc639d42bd0</t>
+          <t>09c8a855-e18d-4caf-9246-513342174102</t>
         </is>
       </c>
     </row>
@@ -523,12 +523,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>fed70605-e69e-4462-a1d5-8a10b47c2991</t>
+          <t>6a60fb0b-6216-4615-a56f-fed640ec0974</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3b16cd20-ef36-4f78-9abd-7ac95b68683f</t>
+          <t>53ad67fa-a1ee-44f2-9ae0-c91846a8dbb6</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7e45138e-9522-4860-9301-b56d43cc2c0b</t>
+          <t>668f1945-4118-4db1-a35e-9aad87325682</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8189cf68-5aaf-4df7-b2cb-a2dcf1ed5e23</t>
+          <t>5c0e0928-f7b0-4992-a3d1-cbff89b1f94b</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7e45138e-9522-4860-9301-b56d43cc2c0b</t>
+          <t>668f1945-4118-4db1-a35e-9aad87325682</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9facdddf-8c1d-4660-a8f4-a17a2915b346</t>
+          <t>6d152818-abe9-41c8-9895-ff5135725427</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>dfdd5762-c4e0-4dbd-9875-040b33581a70</t>
+          <t>ebf4b2a0-7f6d-4adc-a72d-b5492ed6fda3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>da08678a-68ce-451d-8c57-284c86879508</t>
+          <t>e0adfae8-f820-47ae-8a72-37fa26c0e1bf</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>dfdd5762-c4e0-4dbd-9875-040b33581a70</t>
+          <t>ebf4b2a0-7f6d-4adc-a72d-b5492ed6fda3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3955fe3f-6033-40c5-a91c-b22ceeeb9912</t>
+          <t>2d6ff94e-154d-4ece-a8e3-af2b6865a1c8</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>e19c0f37-49e8-4ad4-a87c-1da1e74f02e1</t>
+          <t>e25df6c3-a480-4cfa-966c-d6e695645efd</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>217145d6-8d87-49e3-8a7a-4d926b8b6dbd</t>
+          <t>d25f7a7b-168f-4c78-a32a-5e84f61c928f</t>
         </is>
       </c>
     </row>
@@ -745,12 +745,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>e19c0f37-49e8-4ad4-a87c-1da1e74f02e1</t>
+          <t>e25df6c3-a480-4cfa-966c-d6e695645efd</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2e0a63a4-1053-4022-8459-a5db0afa9893</t>
+          <t>bb21dda7-7227-4fa3-80dc-7f94261e8eee</t>
         </is>
       </c>
     </row>
